--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -61,7 +61,7 @@
     <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development_Team,Business_Intelligence_&amp;_Analytics_Team,KA_Management_Team,Revenue_Management_Team,Europe_Commercial_Operation_Department,Europe_UserOperation_Department</t>
   </si>
   <si>
-    <t>UserRelations_Team,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team Germany Company,Service_Coordinator_Team</t>
+    <t xml:space="preserve">UserRelations_Team,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team Germany Company,Service_Coordinator _Team </t>
   </si>
   <si>
     <t>Network_Development_Team,Construction_Management_Team,Cost_Management_Team,Design_Management_Team,NIO_House_Management_Team,PMO_Infrastructure_Team,Europe_Space_Experience_Department</t>
@@ -73,10 +73,10 @@
     <t>Service_&amp;_Product_PMO_Team,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department</t>
   </si>
   <si>
-    <t>Market_Entry_PMO_Team,Europe_Project_Management_&amp;_Enabling_Department,Regional_Operations_Support_Team,Market_Expansion_Planning</t>
-  </si>
-  <si>
-    <t>Digital_Support_PMO_Team</t>
+    <t>Market_Entry_PMO_Team,Europe_Project_Management_&amp;_Enabling_Department,Regional_Operations_Support_Team ,Market_Expansion_Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital_Support_PMO_Team </t>
   </si>
   <si>
     <t>Training_Team</t>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Department_Category</t>
   </si>
   <si>
+    <t>MC2 Link</t>
+  </si>
+  <si>
     <t>Has Departments</t>
   </si>
   <si>
@@ -55,34 +58,37 @@
     <t>Backend_Support_Unit</t>
   </si>
   <si>
-    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Events_Team,Content_Team,Europe_UserDevelopment_Department</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development_Team,Business_Intelligence_&amp;_Analytics_Team,KA_Management_Team,Revenue_Management_Team,Europe_Commercial_Operation_Department,Europe_UserOperation_Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserRelations_Team,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team Germany Company,Service_Coordinator _Team </t>
-  </si>
-  <si>
-    <t>Network_Development_Team,Construction_Management_Team,Cost_Management_Team,Design_Management_Team,NIO_House_Management_Team,PMO_Infrastructure_Team,Europe_Space_Experience_Department</t>
-  </si>
-  <si>
-    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy &amp; Business_Development_Team,Market_Launch &amp; Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department</t>
-  </si>
-  <si>
-    <t>Service_&amp;_Product_PMO_Team,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department</t>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Event,Content_Team,Europe_UserDevelopment</t>
+  </si>
+  <si>
+    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,KA_Management_Team,Commercial_Product,Europe_Commercial_Operation,Europe_UserOperation_Department</t>
+  </si>
+  <si>
+    <t>UserRelations,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team_Germany_Company,Service_Coordinator</t>
+  </si>
+  <si>
+    <t>Network_Development,Construction_Management,Cost_Management,Design_Management,NIO_House_Operation,PMO_Infrastructure,Europe_Space_Experience</t>
+  </si>
+  <si>
+    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy &amp; Business_Development Team,Market_Launch &amp; Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department</t>
+  </si>
+  <si>
+    <t>Service_PMO,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department</t>
   </si>
   <si>
     <t>Market_Entry_PMO_Team,Europe_Project_Management_&amp;_Enabling_Department,Regional_Operations_Support_Team ,Market_Expansion_Planning</t>
   </si>
   <si>
-    <t xml:space="preserve">Digital_Support_PMO_Team </t>
+    <t xml:space="preserve">Digital_PMO_Team </t>
   </si>
   <si>
     <t>Training_Team</t>
   </si>
   <si>
-    <t>EU_HRBP,EB_Finance,EU_Legal,NIO_Life,EU_Purchase</t>
+    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life,EU_Purchase</t>
   </si>
 </sst>
 </file>
@@ -440,136 +446,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -61,22 +61,22 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Event,Content_Team,Europe_UserDevelopment</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,KA_Management_Team,Commercial_Product,Europe_Commercial_Operation,Europe_UserOperation_Department</t>
+    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Event,Content_Team,Europe_UserDevelopment,Communication_&amp;_PR</t>
+  </si>
+  <si>
+    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,KA_Management_Team,Commercial_Product,Europe_Commercial_Operation,Europe_UserOperation_Department,Europe_Business_Operation,Fleet_&amp;_Business_Sales,Partner_Strategy,Retail_Sales,Sales_Planning</t>
   </si>
   <si>
     <t>UserRelations,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team_Germany_Company,Service_Coordinator</t>
   </si>
   <si>
-    <t>Network_Development,Construction_Management,Cost_Management,Design_Management,NIO_House_Operation,PMO_Infrastructure,Europe_Space_Experience</t>
-  </si>
-  <si>
-    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy &amp; Business_Development Team,Market_Launch &amp; Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department</t>
-  </si>
-  <si>
-    <t>Service_PMO,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department</t>
+    <t>Network_Development,Construction_Management,Cost_Management,Design_Management,NIO_House_Operation,PMO_Infrastructure,Europe_Space_Experience,EPX_PMO</t>
+  </si>
+  <si>
+    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy &amp; Business_Development Team,Market_Launch &amp; Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department,Power_Operation,Power Market_Launch &amp; Enabling Team</t>
+  </si>
+  <si>
+    <t>Service_PMO,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department,Operation_Support,Parts_&amp;_Logistics</t>
   </si>
   <si>
     <t>Market_Entry_PMO_Team,Europe_Project_Management_&amp;_Enabling_Department,Regional_Operations_Support_Team ,Market_Expansion_Planning</t>
@@ -88,7 +88,7 @@
     <t>Training_Team</t>
   </si>
   <si>
-    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life,EU_Purchase</t>
+    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life,EU_Purchase,Operational_Procurement,Planning_Department,EU_Legal_Department,EHS,Digital_Development_PMO_Team,EU_PMK,(Digital) Sales Product Group,Product Marketing Department (PMK),Europe_Product_Experience_Department</t>
   </si>
 </sst>
 </file>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -55,16 +55,16 @@
     <t>Training_Operation</t>
   </si>
   <si>
-    <t>Backend_Support_Unit</t>
-  </si>
-  <si>
-    <t>LINK</t>
-  </si>
-  <si>
-    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Event,Content_Team,Europe_UserDevelopment,Communication_&amp;_PR</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,KA_Management_Team,Commercial_Product,Europe_Commercial_Operation,Europe_UserOperation_Department,Europe_Business_Operation,Fleet_&amp;_Business_Sales,Partner_Strategy,Retail_Sales,Sales_Planning</t>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>Click Me</t>
+  </si>
+  <si>
+    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Event,Content_Team,Europe_UserDevelopment,Communication_and_PR</t>
+  </si>
+  <si>
+    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,KA_Management_Team,Commercial_Product,Europe_Commercial_Operation,Europe_UserOperation_Department,Europe_Business_Operation,Fleet_and_Business_Sales,Partner_Strategy,Retail_Sales,Sales_Planning</t>
   </si>
   <si>
     <t>UserRelations,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team_Germany_Company,Service_Coordinator</t>
@@ -73,22 +73,22 @@
     <t>Network_Development,Construction_Management,Cost_Management,Design_Management,NIO_House_Operation,PMO_Infrastructure,Europe_Space_Experience,EPX_PMO</t>
   </si>
   <si>
-    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy &amp; Business_Development Team,Market_Launch &amp; Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department,Power_Operation,Power Market_Launch &amp; Enabling Team</t>
-  </si>
-  <si>
-    <t>Service_PMO,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department,Operation_Support,Parts_&amp;_Logistics</t>
-  </si>
-  <si>
-    <t>Market_Entry_PMO_Team,Europe_Project_Management_&amp;_Enabling_Department,Regional_Operations_Support_Team ,Market_Expansion_Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital_PMO_Team </t>
+    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy and Business_Development Team,Market_Launch and Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department,Power_Operation,Power_market_launch_and_enabling_team</t>
+  </si>
+  <si>
+    <t>Service_PMO,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department,Operation_Support,Parts_and_Logistics</t>
+  </si>
+  <si>
+    <t>Market_Entry_PMO_Team,Europe_Project_Management_and_Enabling_Department,Regional_Operations_Support_Team ,Market_Expansion_Planning</t>
+  </si>
+  <si>
+    <t>Digital_PMO_Team</t>
   </si>
   <si>
     <t>Training_Team</t>
   </si>
   <si>
-    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life,EU_Purchase,Operational_Procurement,Planning_Department,EU_Legal_Department,EHS,Digital_Development_PMO_Team,EU_PMK,(Digital) Sales Product Group,Product Marketing Department (PMK),Europe_Product_Experience_Department</t>
+    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life_Supply_Chain_Department,EHS,Digital_Development_PMO_Team,Product_Marketing_Department,Europe_Product_Experience_Department,Purchasing_Governance_and_BP_Team</t>
   </si>
 </sst>
 </file>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Department_Category</t>
   </si>
@@ -61,34 +61,28 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Public_Relationship_Team,MarComm_Team,Event,Content_Team,Europe_UserDevelopment,Communication_and_PR</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Planning_Team,Fleet_Operation_Team,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,KA_Management_Team,Commercial_Product,Europe_Commercial_Operation,Europe_UserOperation_Department,Europe_Business_Operation,Fleet_and_Business_Sales,Partner_Strategy,Retail_Sales,Sales_Planning</t>
-  </si>
-  <si>
-    <t>UserRelations,UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team_Germany_Company,Service_Coordinator</t>
-  </si>
-  <si>
-    <t>Network_Development,Construction_Management,Cost_Management,Design_Management,NIO_House_Operation,PMO_Infrastructure,Europe_Space_Experience,EPX_PMO</t>
-  </si>
-  <si>
-    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy and Business_Development Team,Market_Launch and Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation_Department,Power_Operation,Power_market_launch_and_enabling_team</t>
-  </si>
-  <si>
-    <t>Service_PMO,Service_Planning_Team,Service_Quality_Team,Spare_Parts_Team,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation_Department,Operation_Support,Parts_and_Logistics</t>
-  </si>
-  <si>
-    <t>Market_Entry_PMO_Team,Europe_Project_Management_and_Enabling_Department,Regional_Operations_Support_Team ,Market_Expansion_Planning</t>
-  </si>
-  <si>
-    <t>Digital_PMO_Team</t>
-  </si>
-  <si>
-    <t>Training_Team</t>
-  </si>
-  <si>
-    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life_Supply_Chain_Department,EHS,Digital_Development_PMO_Team,Product_Marketing_Department,Europe_Product_Experience_Department,Purchasing_Governance_and_BP_Team</t>
+    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Event,Europe_User_Development,Communication_and_PR</t>
+  </si>
+  <si>
+    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,Commercial_Product,Europe_Commercial_Operation,Europe_Business_Operation,Fleet_and_Business_Sales,Partner_Strategy,Sales_Planning</t>
+  </si>
+  <si>
+    <t>UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team_Germany_Company</t>
+  </si>
+  <si>
+    <t>Construction_Management,Design_Management,NIO_House_Operation,Europe_Space_Experience,PMO</t>
+  </si>
+  <si>
+    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy and Business_Development Team,Market_Launch and Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation,Power_Operation,Power_market_launch_and_enabling_team</t>
+  </si>
+  <si>
+    <t>Service_PMO,Service_Planning,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation,Operation_Support,Parts_and_Logistics</t>
+  </si>
+  <si>
+    <t>_Europe_Business_Enabling,Retall_Sales,Europe_Market_Planning</t>
+  </si>
+  <si>
+    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life_Supply_Chain_Department,Digital_Development_PMO_Team,Product_Marketing_Department,Europe_Product_Experience_Department,Purchasing_Governance_and_BP_Team</t>
   </si>
 </sst>
 </file>
@@ -582,9 +576,6 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -596,9 +587,6 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -611,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -73,13 +73,13 @@
     <t>Construction_Management,Design_Management,NIO_House_Operation,Europe_Space_Experience,PMO</t>
   </si>
   <si>
-    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy and Business_Development Team,Market_Launch and Enabling Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation,Power_Operation,Power_market_launch_and_enabling_team</t>
+    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy_and_Business_Development_Team,Market_Launch_and_Enabling_Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation,Power_Operation,Power_market_launch_and_enabling_team</t>
   </si>
   <si>
     <t>Service_PMO,Service_Planning,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation,Operation_Support,Parts_and_Logistics</t>
   </si>
   <si>
-    <t>_Europe_Business_Enabling,Retall_Sales,Europe_Market_Planning</t>
+    <t>Europe_Business_Enabling,Retall_Sales,Europe_Market_Planning</t>
   </si>
   <si>
     <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life_Supply_Chain_Department,Digital_Development_PMO_Team,Product_Marketing_Department,Europe_Product_Experience_Department,Purchasing_Governance_and_BP_Team</t>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -61,28 +61,28 @@
     <t>Click Me</t>
   </si>
   <si>
-    <t>UserDevelopment_Team_Denmark_Company,UserDevelopment_Team_Netherlands_Company,UserDevelopment_Team_Sweden_Company,UserDevelopment_Team_Germany_Company,Event,Europe_User_Development,Communication_and_PR</t>
-  </si>
-  <si>
-    <t>UserTeam_Norway_Company,UserOperations_Team_Germany_Company,UserOperations_Team_Netherlands_Company,UserOperations_Team_Denmark_Company,UserOperations_Team_Sweden_Company,Fleet_Management_Team_Netherlands_Company,Fleet_Management_Team_Sweden_Company,Fleet_Management_Team_Denmark_Company,Business_Development,Business_Intelligence,Commercial_Product,Europe_Commercial_Operation,Europe_Business_Operation,Fleet_and_Business_Sales,Partner_Strategy,Sales_Planning</t>
-  </si>
-  <si>
-    <t>UserRelationship_Team_Netherlands_Company,UserRelationship_Team_Denmark_Company,UserRelations_Team_Germany_Company</t>
-  </si>
-  <si>
-    <t>Construction_Management,Design_Management,NIO_House_Operation,Europe_Space_Experience,PMO</t>
-  </si>
-  <si>
-    <t>Power_Business_Operation_Team,Power_Management_Team_Germany_Company,Power_Management_Team_Netherlands_Company,Strategy_and_Business_Development_Team,Market_Launch_and_Enabling_Team,Power_Management_Team_Sweden_Company,Power_Management_Team_Denmark_Company,Europe_Power_Operation,Power_Operation,Power_market_launch_and_enabling_team</t>
-  </si>
-  <si>
-    <t>Service_PMO,Service_Planning,Service_Operations_Team_Germany_Company,Service_Team_Norway_Company,Service_Operations_Team_Denmark_Company,Service_Operations_Team_Netherlands_Company,Service_Operations_Team_Sweden_Company,Europe_Service_Operation,Operation_Support,Parts_and_Logistics</t>
+    <t>User_Development_Denmark,User_Development_Netherlands,User_Development_Sweden,User_Development_Germany,Event,EUD_-_Europe_User_Development,Communication_and_PR</t>
+  </si>
+  <si>
+    <t>User_Team_Norway,User_Operations_Germany ,User_Operations_Netherlands,User_Operations_Denmark,User_Operations_Sweden,Fleet_Management_Netherlands,Fleet_Management_Sweden,Fleet_Management_Denmark,Business_Development,Business_Intelligence,Commercial_Product,ECO_-_Europe_Commercial_Operation,EBO_-_Europe_Business_Operation,Fleet_and_Business_Sales,Partner_Strategy,Sales_Planning</t>
+  </si>
+  <si>
+    <t>User_Relations_Netherlands,User_Relations_Denmark,User_Relations_Germany</t>
+  </si>
+  <si>
+    <t>Construction_Management,Design_Management,NIO_House_Operation,EPX_-_Europe_Space_Experience,Network_Development_PMO</t>
+  </si>
+  <si>
+    <t>Power_Business_Operation,Power_Management_Germany,Power_Management_Netherlands,Strategy_and_Business_Development,Market_Launch_and_Enabling,Power_Management_Sweden,Power_Management_Denmark,EPO_-_Europe_Power_Operation,Power_Operation,Power_market_launch_and_enabling</t>
+  </si>
+  <si>
+    <t>Service_PMO,Service_Planning,Service_Operations_Germany,Service_Team_Norway,Service_Operations_Denmark,Service_Operations_Netherlands,Service_Operations_Sweden,ESO_-_Europe_Service_Operation,Operation_Support,Parts_and_Logistics</t>
   </si>
   <si>
     <t>Europe_Business_Enabling,Retall_Sales,Europe_Market_Planning</t>
   </si>
   <si>
-    <t>Europe_Business_HRBP_Department,Controlling_and_Planning_Department,Legal_EU_Department,NIO_Life_Supply_Chain_Department,Digital_Development_PMO_Team,Product_Marketing_Department,Europe_Product_Experience_Department,Purchasing_Governance_and_BP_Team</t>
+    <t>Europe_Business_HRBP,Controlling_and_Planning,Legal_EU,NIO_Life_Supply_Chain,Digital_Development_PMO,PMK_-_Product_Marketing,Europe_Product_Experience,Purchasing_Governance_and_BP</t>
   </si>
 </sst>
 </file>

--- a/helper/Department_Category.xlsx
+++ b/helper/Department_Category.xlsx
@@ -31,7 +31,7 @@
     <t>Sales_Operation</t>
   </si>
   <si>
-    <t>User_Relation_+_SCR</t>
+    <t>User_Relation_and_SCR</t>
   </si>
   <si>
     <t>Network_Infrastructure</t>
